--- a/uploads/M17.xlsx
+++ b/uploads/M17.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -23,6 +23,42 @@
   </si>
   <si>
     <t>Savol-Javoblar</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>Aizzbej asdf</t>
+  </si>
+  <si>
+    <t>Buxoro</t>
+  </si>
+  <si>
+    <t>0:0, 1:1, 2:0, 3:0, 4:0</t>
+  </si>
+  <si>
+    <t>asd asd</t>
+  </si>
+  <si>
+    <t>Andijon</t>
+  </si>
+  <si>
+    <t>0:0, 1:0, 2:0, 3:1, 4:1</t>
+  </si>
+  <si>
+    <t>asd as</t>
+  </si>
+  <si>
+    <t>a a</t>
+  </si>
+  <si>
+    <t>s s</t>
+  </si>
+  <si>
+    <t>Toshkent</t>
+  </si>
+  <si>
+    <t>0:0, 1:0, 2:0, 3:1, 4:1, 55:0</t>
   </si>
 </sst>
 </file>
@@ -399,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -420,8 +456,344 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>